--- a/women_table.xlsx
+++ b/women_table.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,10 +473,15 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Mae</t>
+          <t>Mae old от pc</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mae pc от old </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Тип данных</t>
         </is>
@@ -509,7 +514,10 @@
       <c r="H2" t="n">
         <v>36.17147619047619</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="n">
+        <v>36.17147619047619</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -542,7 +550,10 @@
       <c r="H3" t="n">
         <v>728.3952380952381</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="n">
+        <v>728.3952380952381</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -575,7 +586,10 @@
       <c r="H4" t="n">
         <v>2121.776190476191</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="n">
+        <v>2121.776190476191</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -608,7 +622,10 @@
       <c r="H5" t="n">
         <v>799.2619047619048</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="n">
+        <v>799.2619047619048</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -641,7 +658,10 @@
       <c r="H6" t="n">
         <v>20.12333333333333</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" t="n">
+        <v>20.12333333333333</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -674,7 +694,10 @@
       <c r="H7" t="n">
         <v>198.1428571428571</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" t="n">
+        <v>198.1428571428571</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -707,7 +730,10 @@
       <c r="H8" t="n">
         <v>1347.561904761905</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" t="n">
+        <v>1347.561904761905</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -740,7 +766,10 @@
       <c r="H9" t="n">
         <v>590.9904761904762</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" t="n">
+        <v>590.9904761904762</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -773,7 +802,10 @@
       <c r="H10" t="n">
         <v>1563.380952380952</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="n">
+        <v>1563.380952380952</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -806,7 +838,10 @@
       <c r="H11" t="n">
         <v>1868.97619047619</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" t="n">
+        <v>1868.97619047619</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -839,7 +874,10 @@
       <c r="H12" t="n">
         <v>470.7857142857143</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" t="n">
+        <v>470.7857142857143</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -872,7 +910,10 @@
       <c r="H13" t="n">
         <v>319.1904761904762</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" t="n">
+        <v>319.1904761904762</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -905,7 +946,10 @@
       <c r="H14" t="n">
         <v>31.77142857142857</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" t="n">
+        <v>31.77142857142857</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -938,7 +982,10 @@
       <c r="H15" t="n">
         <v>279.5504761904762</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I15" t="n">
+        <v>279.5504761904762</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -971,7 +1018,10 @@
       <c r="H16" t="n">
         <v>33.34</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16" t="n">
+        <v>33.34</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1004,7 +1054,10 @@
       <c r="H17" t="n">
         <v>18.28414285714285</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I17" t="n">
+        <v>18.28414285714285</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1037,7 +1090,10 @@
       <c r="H18" t="n">
         <v>36.38266666666667</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I18" t="n">
+        <v>36.38266666666667</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1070,7 +1126,10 @@
       <c r="H19" t="n">
         <v>34.47619047619047</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19" t="n">
+        <v>34.47619047619047</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -1103,7 +1162,10 @@
       <c r="H20" t="n">
         <v>36.62380952380953</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I20" t="n">
+        <v>36.62380952380953</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -1136,7 +1198,10 @@
       <c r="H21" t="n">
         <v>36.53333333333333</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I21" t="n">
+        <v>36.53333333333333</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -1169,7 +1234,10 @@
       <c r="H22" t="n">
         <v>35.92142857142857</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I22" t="n">
+        <v>35.92142857142857</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1202,7 +1270,10 @@
       <c r="H23" t="n">
         <v>36.11409523809523</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I23" t="n">
+        <v>36.11409523809523</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1235,7 +1306,10 @@
       <c r="H24" t="n">
         <v>35.87857666666667</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I24" t="n">
+        <v>35.87857666666667</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1252,7 +1326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1298,10 +1372,15 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Mae</t>
+          <t>Mae old от pc</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mae pc от old </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Тип данных</t>
         </is>
@@ -1310,64 +1389,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>true_text_err</t>
+          <t>HR_avg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.03405206025689635</v>
+        <v>-0.563160747706989</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6236681992989144</v>
+        <v>5.717941627888745e-19</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04084409568296</v>
+        <v>-0.5535361166123017</v>
       </c>
       <c r="E2" t="n">
-        <v>0.556129603180653</v>
+        <v>2.950374068758107e-18</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03215584568933186</v>
+        <v>-0.404436603374096</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5449432699410659</v>
+        <v>2.249100166496501e-17</v>
       </c>
       <c r="H2" t="n">
-        <v>35.62857142857143</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>discret</t>
+        <v>45.20952380952381</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45.20952380952381</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>continious</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>RR_dev</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.07116392149416305</v>
+        <v>-0.4833147713684333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3046984630197165</v>
+        <v>1.084899372011208e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07917303681084345</v>
+        <v>-0.5126360797377197</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2533408765905862</v>
+        <v>1.80339292926678e-15</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.05649855796448009</v>
+        <v>-0.3534808557790984</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2566684489098781</v>
+        <v>1.266686470217407e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>38.28047619047619</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>24.93809523809524</v>
+      </c>
+      <c r="I3" t="n">
+        <v>24.93809523809524</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1376,31 +1461,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LF_HF_avg</t>
+          <t>MxDMn</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07653028456510827</v>
+        <v>-0.4699793627859539</v>
       </c>
       <c r="C4" t="n">
-        <v>0.269580288572472</v>
+        <v>6.167532663612471e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1556709307544736</v>
+        <v>-0.5144348230232497</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02405851510287397</v>
+        <v>1.384493735382952e-15</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.09211176316417465</v>
+        <v>-0.3550761261799187</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0513053171731386</v>
+        <v>1.460852321113236e-13</v>
       </c>
       <c r="H4" t="n">
-        <v>34.10985714285714</v>
-      </c>
-      <c r="I4" t="inlineStr">
+        <v>36.759</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36.759</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1409,31 +1497,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HF_dev</t>
+          <t>SDNN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1227146700570167</v>
+        <v>-0.4633272811863045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07599657189141465</v>
+        <v>1.42737139997275e-12</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2878125657240203</v>
+        <v>-0.5088254717829863</v>
       </c>
       <c r="E5" t="n">
-        <v>2.276566892434768e-05</v>
+        <v>3.141007735488943e-15</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1985688351721019</v>
+        <v>-0.3462761792299462</v>
       </c>
       <c r="G5" t="n">
-        <v>2.603195273562965e-05</v>
+        <v>2.232438475951973e-13</v>
       </c>
       <c r="H5" t="n">
-        <v>72.51014285714287</v>
-      </c>
-      <c r="I5" t="inlineStr">
+        <v>26.0788</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26.0788</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1442,31 +1533,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TP_dev</t>
+          <t>TP_avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1816296442226428</v>
+        <v>-0.4490038225995647</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008331432488998688</v>
+        <v>8.18429817326593e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3754071584845641</v>
+        <v>-0.5581460471982456</v>
       </c>
       <c r="E6" t="n">
-        <v>1.972500200009561e-08</v>
+        <v>1.3533797783701e-18</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2501270590413495</v>
+        <v>-0.3813915100814337</v>
       </c>
       <c r="G6" t="n">
-        <v>1.172974504711099e-07</v>
+        <v>6.593398465753607e-16</v>
       </c>
       <c r="H6" t="n">
-        <v>318.9816666666666</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>1180.304428571429</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1180.304428571429</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1475,31 +1569,34 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pNN50</t>
+          <t>LF_avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2048699701978518</v>
+        <v>-0.4365682814218711</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002855957196943336</v>
+        <v>3.494455845625614e-11</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2834417000597461</v>
+        <v>-0.6272118504786415</v>
       </c>
       <c r="E7" t="n">
-        <v>3.062637707197494e-05</v>
+        <v>2.312509948086456e-24</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1964090620921852</v>
+        <v>-0.4349005856646527</v>
       </c>
       <c r="G7" t="n">
-        <v>4.297502713607709e-05</v>
+        <v>3.22689420589755e-20</v>
       </c>
       <c r="H7" t="n">
-        <v>31.13542857142857</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>516.5654285714286</v>
+      </c>
+      <c r="I7" t="n">
+        <v>516.5654285714286</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1508,31 +1605,34 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>HF_avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2171839545705047</v>
+        <v>-0.3973942399391771</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001543436614236095</v>
+        <v>2.340930581224624e-09</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1986073612131382</v>
+        <v>-0.4461975293636469</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00385537871674683</v>
+        <v>1.141515650650902e-11</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1542746237042602</v>
+        <v>-0.3045256012422814</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004173969339207545</v>
+        <v>1.120955354438557e-10</v>
       </c>
       <c r="H8" t="n">
-        <v>41.86904761904762</v>
-      </c>
-      <c r="I8" t="inlineStr">
+        <v>282.2903333333334</v>
+      </c>
+      <c r="I8" t="n">
+        <v>282.2903333333334</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1541,31 +1641,34 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LF_dev</t>
+          <t>VLF_avg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2296186293863944</v>
+        <v>-0.3729823301766781</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0008007456673524867</v>
+        <v>2.471571755712504e-08</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4612657998074924</v>
+        <v>-0.4735059399871623</v>
       </c>
       <c r="E9" t="n">
-        <v>1.844517984316067e-12</v>
+        <v>3.923682336607756e-13</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.312236286081546</v>
+        <v>-0.3219369816556348</v>
       </c>
       <c r="G9" t="n">
-        <v>3.766707990620401e-11</v>
+        <v>9.194314087059036e-12</v>
       </c>
       <c r="H9" t="n">
-        <v>183.8202380952381</v>
-      </c>
-      <c r="I9" t="inlineStr">
+        <v>329.7729047619047</v>
+      </c>
+      <c r="I9" t="n">
+        <v>329.7729047619047</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1574,31 +1677,34 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VLF_dev</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2299759058619145</v>
+        <v>-0.2622963464550905</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007853771139774965</v>
+        <v>0.0001201096238936208</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3021844776548033</v>
+        <v>-0.3474381918129196</v>
       </c>
       <c r="E10" t="n">
-        <v>8.288764804797761e-06</v>
+        <v>2.383047826687416e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2000133067341769</v>
+        <v>-0.2308640317699737</v>
       </c>
       <c r="G10" t="n">
-        <v>2.27374031471639e-05</v>
+        <v>1.026399541999704e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>138.0732380952381</v>
-      </c>
-      <c r="I10" t="inlineStr">
+        <v>36.94738095238095</v>
+      </c>
+      <c r="I10" t="n">
+        <v>36.94738095238095</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1607,31 +1713,34 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>VLF_dev</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2622963464550905</v>
+        <v>-0.2299759058619145</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001201096238936208</v>
+        <v>0.0007853771139774965</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3474381918129196</v>
+        <v>-0.3021844776548033</v>
       </c>
       <c r="E11" t="n">
-        <v>2.383047826687416e-07</v>
+        <v>8.288764804797761e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2308640317699737</v>
+        <v>-0.2000133067341769</v>
       </c>
       <c r="G11" t="n">
-        <v>1.026399541999704e-06</v>
+        <v>2.27374031471639e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>36.94738095238095</v>
-      </c>
-      <c r="I11" t="inlineStr">
+        <v>138.0732380952381</v>
+      </c>
+      <c r="I11" t="n">
+        <v>138.0732380952381</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1640,31 +1749,34 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VLF_avg</t>
+          <t>LF_dev</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3729823301766781</v>
+        <v>-0.2296186293863944</v>
       </c>
       <c r="C12" t="n">
-        <v>2.471571755712504e-08</v>
+        <v>0.0008007456673524867</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4735059399871623</v>
+        <v>-0.4612657998074924</v>
       </c>
       <c r="E12" t="n">
-        <v>3.923682336607756e-13</v>
+        <v>1.844517984316067e-12</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3219369816556348</v>
+        <v>-0.312236286081546</v>
       </c>
       <c r="G12" t="n">
-        <v>9.194314087059036e-12</v>
+        <v>3.766707990620401e-11</v>
       </c>
       <c r="H12" t="n">
-        <v>329.7729047619047</v>
-      </c>
-      <c r="I12" t="inlineStr">
+        <v>183.8202380952381</v>
+      </c>
+      <c r="I12" t="n">
+        <v>183.8202380952381</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1673,31 +1785,34 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HF_avg</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.3973942399391771</v>
+        <v>-0.2171839545705047</v>
       </c>
       <c r="C13" t="n">
-        <v>2.340930581224624e-09</v>
+        <v>0.001543436614236095</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4461975293636469</v>
+        <v>-0.1986073612131382</v>
       </c>
       <c r="E13" t="n">
-        <v>1.141515650650902e-11</v>
+        <v>0.00385537871674683</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3045256012422814</v>
+        <v>-0.1542746237042602</v>
       </c>
       <c r="G13" t="n">
-        <v>1.120955354438557e-10</v>
+        <v>0.004173969339207545</v>
       </c>
       <c r="H13" t="n">
-        <v>282.2903333333334</v>
-      </c>
-      <c r="I13" t="inlineStr">
+        <v>41.86904761904762</v>
+      </c>
+      <c r="I13" t="n">
+        <v>41.86904761904762</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1706,31 +1821,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LF_avg</t>
+          <t>pNN50</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.4365682814218711</v>
+        <v>-0.2048699701978518</v>
       </c>
       <c r="C14" t="n">
-        <v>3.494455845625614e-11</v>
+        <v>0.002855957196943336</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.6272118504786415</v>
+        <v>-0.2834417000597461</v>
       </c>
       <c r="E14" t="n">
-        <v>2.312509948086456e-24</v>
+        <v>3.062637707197494e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4349005856646527</v>
+        <v>-0.1964090620921852</v>
       </c>
       <c r="G14" t="n">
-        <v>3.22689420589755e-20</v>
+        <v>4.297502713607709e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>516.5654285714286</v>
-      </c>
-      <c r="I14" t="inlineStr">
+        <v>31.13542857142857</v>
+      </c>
+      <c r="I14" t="n">
+        <v>31.13542857142857</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1739,31 +1857,34 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TP_avg</t>
+          <t>TP_dev</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4490038225995647</v>
+        <v>-0.1816296442226428</v>
       </c>
       <c r="C15" t="n">
-        <v>8.18429817326593e-12</v>
+        <v>0.008331432488998688</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.5581460471982456</v>
+        <v>-0.3754071584845641</v>
       </c>
       <c r="E15" t="n">
-        <v>1.3533797783701e-18</v>
+        <v>1.972500200009561e-08</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3813915100814337</v>
+        <v>-0.2501270590413495</v>
       </c>
       <c r="G15" t="n">
-        <v>6.593398465753607e-16</v>
+        <v>1.172974504711099e-07</v>
       </c>
       <c r="H15" t="n">
-        <v>1180.304428571429</v>
-      </c>
-      <c r="I15" t="inlineStr">
+        <v>318.9816666666666</v>
+      </c>
+      <c r="I15" t="n">
+        <v>318.9816666666666</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1772,31 +1893,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SDNN</t>
+          <t>HF_dev</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.4633272811863045</v>
+        <v>-0.1227146700570167</v>
       </c>
       <c r="C16" t="n">
-        <v>1.42737139997275e-12</v>
+        <v>0.07599657189141465</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5088254717829863</v>
+        <v>-0.2878125657240203</v>
       </c>
       <c r="E16" t="n">
-        <v>3.141007735488943e-15</v>
+        <v>2.276566892434768e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3462761792299462</v>
+        <v>-0.1985688351721019</v>
       </c>
       <c r="G16" t="n">
-        <v>2.232438475951973e-13</v>
+        <v>2.603195273562965e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>26.0788</v>
-      </c>
-      <c r="I16" t="inlineStr">
+        <v>72.51014285714287</v>
+      </c>
+      <c r="I16" t="n">
+        <v>72.51014285714287</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1805,31 +1929,34 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MxDMn</t>
+          <t>LF_HF_avg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4699793627859539</v>
+        <v>-0.07653028456510827</v>
       </c>
       <c r="C17" t="n">
-        <v>6.167532663612471e-13</v>
+        <v>0.269580288572472</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5144348230232497</v>
+        <v>-0.1556709307544736</v>
       </c>
       <c r="E17" t="n">
-        <v>1.384493735382952e-15</v>
+        <v>0.02405851510287397</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3550761261799187</v>
+        <v>-0.09211176316417465</v>
       </c>
       <c r="G17" t="n">
-        <v>1.460852321113236e-13</v>
+        <v>0.0513053171731386</v>
       </c>
       <c r="H17" t="n">
-        <v>36.759</v>
-      </c>
-      <c r="I17" t="inlineStr">
+        <v>34.10985714285714</v>
+      </c>
+      <c r="I17" t="n">
+        <v>34.10985714285714</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1838,31 +1965,34 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RR_dev</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.4833147713684333</v>
+        <v>-0.07116392149416305</v>
       </c>
       <c r="C18" t="n">
-        <v>1.084899372011208e-13</v>
+        <v>0.3046984630197165</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.5126360797377197</v>
+        <v>-0.07917303681084345</v>
       </c>
       <c r="E18" t="n">
-        <v>1.80339292926678e-15</v>
+        <v>0.2533408765905862</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.3534808557790984</v>
+        <v>-0.05649855796448009</v>
       </c>
       <c r="G18" t="n">
-        <v>1.266686470217407e-13</v>
+        <v>0.2566684489098781</v>
       </c>
       <c r="H18" t="n">
-        <v>24.93809523809524</v>
-      </c>
-      <c r="I18" t="inlineStr">
+        <v>38.28047619047619</v>
+      </c>
+      <c r="I18" t="n">
+        <v>38.28047619047619</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1871,33 +2001,36 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HR_avg</t>
+          <t>true_text_err</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.563160747706989</v>
+        <v>-0.03405206025689635</v>
       </c>
       <c r="C19" t="n">
-        <v>5.717941627888745e-19</v>
+        <v>0.6236681992989144</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.5535361166123017</v>
+        <v>-0.04084409568296</v>
       </c>
       <c r="E19" t="n">
-        <v>2.950374068758107e-18</v>
+        <v>0.556129603180653</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.404436603374096</v>
+        <v>-0.03215584568933186</v>
       </c>
       <c r="G19" t="n">
-        <v>2.249100166496501e-17</v>
+        <v>0.5449432699410659</v>
       </c>
       <c r="H19" t="n">
-        <v>45.20952380952381</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>continious</t>
+        <v>35.62857142857143</v>
+      </c>
+      <c r="I19" t="n">
+        <v>35.62857142857143</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>discret</t>
         </is>
       </c>
     </row>
@@ -1912,7 +2045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,10 +2091,15 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Mae</t>
+          <t>Mae old от pc</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mae pc от old </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Тип данных</t>
         </is>
@@ -1994,7 +2132,10 @@
       <c r="H2" t="n">
         <v>36.17147619047619</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="n">
+        <v>36.17147619047619</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2027,7 +2168,10 @@
       <c r="H3" t="n">
         <v>728.3952380952381</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="n">
+        <v>728.3952380952381</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2060,7 +2204,10 @@
       <c r="H4" t="n">
         <v>2121.776190476191</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="n">
+        <v>2121.776190476191</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2093,7 +2240,10 @@
       <c r="H5" t="n">
         <v>799.2619047619048</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="n">
+        <v>799.2619047619048</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2126,7 +2276,10 @@
       <c r="H6" t="n">
         <v>20.12333333333333</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" t="n">
+        <v>20.12333333333333</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2159,7 +2312,10 @@
       <c r="H7" t="n">
         <v>198.1428571428571</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" t="n">
+        <v>198.1428571428571</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2192,7 +2348,10 @@
       <c r="H8" t="n">
         <v>1347.561904761905</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" t="n">
+        <v>1347.561904761905</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2225,7 +2384,10 @@
       <c r="H9" t="n">
         <v>590.9904761904762</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" t="n">
+        <v>590.9904761904762</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2258,7 +2420,10 @@
       <c r="H10" t="n">
         <v>1563.380952380952</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="n">
+        <v>1563.380952380952</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2291,7 +2456,10 @@
       <c r="H11" t="n">
         <v>1868.97619047619</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" t="n">
+        <v>1868.97619047619</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2324,7 +2492,10 @@
       <c r="H12" t="n">
         <v>470.7857142857143</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" t="n">
+        <v>470.7857142857143</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2357,7 +2528,10 @@
       <c r="H13" t="n">
         <v>319.1904761904762</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" t="n">
+        <v>319.1904761904762</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2390,7 +2564,10 @@
       <c r="H14" t="n">
         <v>31.77142857142857</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" t="n">
+        <v>31.77142857142857</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -2423,7 +2600,10 @@
       <c r="H15" t="n">
         <v>279.5504761904762</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I15" t="n">
+        <v>279.5504761904762</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2456,7 +2636,10 @@
       <c r="H16" t="n">
         <v>33.34</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16" t="n">
+        <v>33.34</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2489,7 +2672,10 @@
       <c r="H17" t="n">
         <v>18.28414285714285</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I17" t="n">
+        <v>18.28414285714285</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2522,7 +2708,10 @@
       <c r="H18" t="n">
         <v>36.38266666666667</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I18" t="n">
+        <v>36.38266666666667</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2555,7 +2744,10 @@
       <c r="H19" t="n">
         <v>34.47619047619047</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19" t="n">
+        <v>34.47619047619047</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -2588,7 +2780,10 @@
       <c r="H20" t="n">
         <v>36.62380952380953</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I20" t="n">
+        <v>36.62380952380953</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -2621,7 +2816,10 @@
       <c r="H21" t="n">
         <v>36.53333333333333</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I21" t="n">
+        <v>36.53333333333333</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -2654,7 +2852,10 @@
       <c r="H22" t="n">
         <v>35.92142857142857</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I22" t="n">
+        <v>35.92142857142857</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2687,7 +2888,10 @@
       <c r="H23" t="n">
         <v>36.11409523809523</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I23" t="n">
+        <v>36.11409523809523</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2720,7 +2924,10 @@
       <c r="H24" t="n">
         <v>35.87857666666667</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I24" t="n">
+        <v>35.87857666666667</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2753,7 +2960,10 @@
       <c r="H25" t="n">
         <v>35.62857142857143</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I25" t="n">
+        <v>35.62857142857143</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -2786,7 +2996,10 @@
       <c r="H26" t="n">
         <v>38.28047619047619</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I26" t="n">
+        <v>38.28047619047619</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2819,7 +3032,10 @@
       <c r="H27" t="n">
         <v>34.10985714285714</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I27" t="n">
+        <v>34.10985714285714</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2852,7 +3068,10 @@
       <c r="H28" t="n">
         <v>72.51014285714287</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I28" t="n">
+        <v>72.51014285714287</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2885,7 +3104,10 @@
       <c r="H29" t="n">
         <v>318.9816666666666</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I29" t="n">
+        <v>318.9816666666666</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2918,7 +3140,10 @@
       <c r="H30" t="n">
         <v>31.13542857142857</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I30" t="n">
+        <v>31.13542857142857</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2951,7 +3176,10 @@
       <c r="H31" t="n">
         <v>41.86904761904762</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I31" t="n">
+        <v>41.86904761904762</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2984,7 +3212,10 @@
       <c r="H32" t="n">
         <v>183.8202380952381</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I32" t="n">
+        <v>183.8202380952381</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3017,7 +3248,10 @@
       <c r="H33" t="n">
         <v>138.0732380952381</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I33" t="n">
+        <v>138.0732380952381</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3050,7 +3284,10 @@
       <c r="H34" t="n">
         <v>36.94738095238095</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I34" t="n">
+        <v>36.94738095238095</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3083,7 +3320,10 @@
       <c r="H35" t="n">
         <v>329.7729047619047</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I35" t="n">
+        <v>329.7729047619047</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3116,7 +3356,10 @@
       <c r="H36" t="n">
         <v>282.2903333333334</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I36" t="n">
+        <v>282.2903333333334</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3149,7 +3392,10 @@
       <c r="H37" t="n">
         <v>516.5654285714286</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I37" t="n">
+        <v>516.5654285714286</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3182,7 +3428,10 @@
       <c r="H38" t="n">
         <v>1180.304428571429</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I38" t="n">
+        <v>1180.304428571429</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3215,7 +3464,10 @@
       <c r="H39" t="n">
         <v>26.0788</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I39" t="n">
+        <v>26.0788</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3248,7 +3500,10 @@
       <c r="H40" t="n">
         <v>36.759</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I40" t="n">
+        <v>36.759</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3281,7 +3536,10 @@
       <c r="H41" t="n">
         <v>24.93809523809524</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I41" t="n">
+        <v>24.93809523809524</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3314,7 +3572,10 @@
       <c r="H42" t="n">
         <v>45.20952380952381</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="I42" t="n">
+        <v>45.20952380952381</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
